--- a/TestData_Flight.xlsx
+++ b/TestData_Flight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Farrendy\Documents\CCN\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Farrendy\git\CCN-Projects-Booking-Concierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43498B07-DF08-4DBA-AA10-808C29AEA8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7EECB6-3AB9-466B-8C87-99880270636D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="360" windowWidth="11580" windowHeight="12552" xr2:uid="{60DB1C98-9F4E-4D24-BE07-D165FAE35515}"/>
+    <workbookView xWindow="13296" yWindow="36" windowWidth="9756" windowHeight="12552" xr2:uid="{60DB1C98-9F4E-4D24-BE07-D165FAE35515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>var_FNSuffix</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>0001A</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>0002B</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>0003C</t>
+  </si>
+  <si>
+    <t>X1</t>
   </si>
 </sst>
 </file>
@@ -415,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39634310-F4A0-49AF-9A5C-7EF0E142ED66}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,8 +474,8 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>44063</v>
@@ -462,10 +489,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>44063</v>
@@ -479,10 +506,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>222</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>44064</v>
@@ -493,6 +520,49 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44063</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44063</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
